--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\bldgs\BDEQ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="19420" windowHeight="11020" tabRatio="670"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19425" windowHeight="11025" tabRatio="670" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,15 +26,12 @@
     <definedName name="rural_fraction">'Poland Urban Rural Share'!$C$3</definedName>
     <definedName name="urban_fraction">'Poland Urban Rural Share'!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
-  <si>
-    <t>coal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>natural gas nonpeaker</t>
   </si>
@@ -38,9 +40,6 @@
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>wind</t>
   </si>
   <si>
     <t>solar PV</t>
@@ -165,11 +164,23 @@
   <si>
     <t>http://bpie.eu/wp-content/uploads/2016/01/BPIE_Financing-building-energy-in-Poland_EN.pdf</t>
   </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -329,6 +340,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -376,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,123 +636,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -753,98 +767,98 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.3</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8*10^6</f>
         <v>300000</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.115</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8760</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f>A9/A12/A15</f>
         <v>297.79630732578914</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -858,26 +872,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>2285600</v>
@@ -887,9 +901,9 @@
         <v>0.37796629789485869</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
         <v>3761500</v>
@@ -899,9 +913,9 @@
         <v>0.62203370210514131</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
         <v>6047100</v>
@@ -921,13 +935,15 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:AK14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -1042,7 +1058,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1155,7 +1171,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1268,7 +1284,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1381,7 +1397,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1494,7 +1510,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1607,7 +1623,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1754,7 +1770,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1835,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" ref="AB8:AK12" si="1">TREND($R8:$AA8,$R$1:$AA$1,AB$1)</f>
+        <f t="shared" ref="AB8:AK14" si="1">TREND($R8:$AA8,$R$1:$AA$1,AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC8">
@@ -1877,7 +1893,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2000,7 +2016,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2123,7 +2139,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2246,7 +2262,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2363,6 +2379,252 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2377,13 +2639,15 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:AK14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -2498,7 +2762,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2611,7 +2875,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2724,7 +2988,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2837,7 +3101,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2950,7 +3214,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3063,7 +3327,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3210,7 +3474,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3323,7 +3587,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3436,7 +3700,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3549,7 +3813,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3662,7 +3926,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3770,6 +4034,232 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>0</v>
       </c>
     </row>
@@ -3783,13 +4273,15 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:AK14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -3904,7 +4396,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4017,7 +4509,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4130,7 +4622,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4243,7 +4735,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4356,7 +4848,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4469,7 +4961,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4582,7 +5074,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4695,7 +5187,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4808,7 +5300,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4921,7 +5413,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5034,7 +5526,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5142,6 +5634,232 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>0</v>
       </c>
     </row>
@@ -5155,13 +5873,15 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:AK14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5276,7 +5996,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5389,7 +6109,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5502,7 +6222,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5615,7 +6335,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5728,7 +6448,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5841,7 +6561,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5988,7 +6708,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6069,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" ref="AB8:AK12" si="1">TREND($R8:$AA8,$R$1:$AA$1,AB$1)</f>
+        <f t="shared" ref="AB8:AK14" si="1">TREND($R8:$AA8,$R$1:$AA$1,AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC8">
@@ -6111,7 +6831,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6234,7 +6954,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6357,7 +7077,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6480,7 +7200,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6597,6 +7317,252 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6611,13 +7577,15 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:AK14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -6732,7 +7700,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6845,7 +7813,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6958,7 +7926,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7071,7 +8039,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7184,7 +8152,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7297,7 +8265,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7444,7 +8412,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7557,7 +8525,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7670,7 +8638,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7783,7 +8751,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7896,7 +8864,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8004,6 +8972,232 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>0</v>
       </c>
     </row>
@@ -8017,13 +9211,15 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:AK14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -8138,7 +9334,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8251,7 +9447,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8364,7 +9560,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8477,7 +9673,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8590,7 +9786,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8703,7 +9899,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8816,7 +10012,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8929,7 +10125,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9042,7 +10238,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9155,7 +10351,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9268,7 +10464,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9376,6 +10572,232 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>0</v>
       </c>
     </row>
